--- a/data/IRMS/peak_map_manual.xlsx
+++ b/data/IRMS/peak_map_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/active_repos/tristan_d2o/data/IRMS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\active_repos\tristan_d2o\data\IRMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9516198C-4941-1340-8AC9-9B74E917CC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B43BE5-3307-4B38-9169-DD5C79A336BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{42725BC7-9775-E54E-AA2D-819F4CD6C3D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{42725BC7-9775-E54E-AA2D-819F4CD6C3D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>17:0 cyclo</t>
   </si>
   <si>
-    <t>18:2 trans 9,12</t>
-  </si>
-  <si>
     <t>18:1 trans 9</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>rt:BF10900</t>
+  </si>
+  <si>
+    <t>18:2 trans 9, 12</t>
   </si>
 </sst>
 </file>
@@ -458,15 +458,15 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,13 +474,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -494,7 +494,7 @@
         <v>1702.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -508,7 +508,7 @@
         <v>1721.74</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -522,7 +522,7 @@
         <v>1961.88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -536,7 +536,7 @@
         <v>2004.73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -550,7 +550,7 @@
         <v>2026.26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -564,7 +564,7 @@
         <v>2072.0300000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -578,7 +578,7 @@
         <v>2224.1799999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -592,9 +592,9 @@
         <v>2280.19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>2480.62</v>
@@ -606,9 +606,9 @@
         <v>2483.34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>2505.2800000000002</v>
@@ -620,9 +620,9 @@
         <v>2509.0500000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>2528.27</v>
@@ -634,9 +634,9 @@
         <v>2533.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>2575.3000000000002</v>
@@ -648,9 +648,9 @@
         <v>2579.27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>2628.38</v>
@@ -662,9 +662,9 @@
         <v>2637.16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>3058.92</v>
@@ -676,9 +676,9 @@
         <v>3061.43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>3299.48</v>
@@ -690,9 +690,9 @@
         <v>3307.22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>3513.92</v>
@@ -704,9 +704,9 @@
         <v>3516.43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>3729.61</v>
@@ -718,9 +718,9 @@
         <v>3733.78</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>3794.81</v>
@@ -732,9 +732,9 @@
         <v>3796.28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>3936.72</v>

--- a/data/IRMS/peak_map_manual.xlsx
+++ b/data/IRMS/peak_map_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\active_repos\tristan_d2o\data\IRMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/active_repos/tristan_d2o/data/IRMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B43BE5-3307-4B38-9169-DD5C79A336BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C9EF3C-685A-7A4A-BDBB-32C6E0951DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{42725BC7-9775-E54E-AA2D-819F4CD6C3D8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{42725BC7-9775-E54E-AA2D-819F4CD6C3D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>compound</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>18:2 trans 9, 12</t>
+  </si>
+  <si>
+    <t>rt</t>
   </si>
 </sst>
 </file>
@@ -455,18 +458,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C98B25-6EE0-4840-901A-84A0A10B93FB}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +482,11 @@
       <c r="D1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -493,8 +499,11 @@
       <c r="D2">
         <v>1702.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1700.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -507,8 +516,11 @@
       <c r="D3">
         <v>1721.74</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1720.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -521,8 +533,11 @@
       <c r="D4">
         <v>1961.88</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -535,8 +550,11 @@
       <c r="D5">
         <v>2004.73</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>2003.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -549,8 +567,11 @@
       <c r="D6">
         <v>2026.26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>2025.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -563,8 +584,11 @@
       <c r="D7">
         <v>2072.0300000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2070.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -577,8 +601,11 @@
       <c r="D8">
         <v>2224.1799999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2222.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -591,8 +618,11 @@
       <c r="D9">
         <v>2280.19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2277.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -605,8 +635,11 @@
       <c r="D10">
         <v>2483.34</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>2481.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -619,8 +652,11 @@
       <c r="D11">
         <v>2509.0500000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>2507.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -633,8 +669,11 @@
       <c r="D12">
         <v>2533.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>2531.1999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -647,8 +686,11 @@
       <c r="D13">
         <v>2579.27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>2578.2199999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -661,8 +703,11 @@
       <c r="D14">
         <v>2637.16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>2633.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -675,8 +720,11 @@
       <c r="D15">
         <v>3061.43</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>3061.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -689,8 +737,11 @@
       <c r="D16">
         <v>3307.22</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>3304.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -703,8 +754,11 @@
       <c r="D17">
         <v>3516.43</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>3516.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -717,8 +771,11 @@
       <c r="D18">
         <v>3733.78</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>3735.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -731,8 +788,11 @@
       <c r="D19">
         <v>3796.28</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>3796.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -744,6 +804,9 @@
       </c>
       <c r="D20">
         <v>3939.23</v>
+      </c>
+      <c r="E20">
+        <v>3939.44</v>
       </c>
     </row>
   </sheetData>

--- a/data/IRMS/peak_map_manual.xlsx
+++ b/data/IRMS/peak_map_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/active_repos/tristan_d2o/data/IRMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C9EF3C-685A-7A4A-BDBB-32C6E0951DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB7097D-9985-944C-BA00-E28679F12D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{42725BC7-9775-E54E-AA2D-819F4CD6C3D8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" xr2:uid="{42725BC7-9775-E54E-AA2D-819F4CD6C3D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,10 @@
     <t>rt:BF10900</t>
   </si>
   <si>
-    <t>18:2 trans 9, 12</t>
-  </si>
-  <si>
     <t>rt</t>
+  </si>
+  <si>
+    <t>18:2 9, 12</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +483,7 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -624,7 +624,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>2480.62</v>

--- a/data/IRMS/peak_map_manual.xlsx
+++ b/data/IRMS/peak_map_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/active_repos/tristan_d2o/data/IRMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB7097D-9985-944C-BA00-E28679F12D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DD71FA-D225-E04C-B7C3-8E72D36E6134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" xr2:uid="{42725BC7-9775-E54E-AA2D-819F4CD6C3D8}"/>
   </bookViews>
@@ -51,12 +51,6 @@
     <t>i-16:0</t>
   </si>
   <si>
-    <t>16:1 cis 9</t>
-  </si>
-  <si>
-    <t>16:1 trans 9</t>
-  </si>
-  <si>
     <t>16:0</t>
   </si>
   <si>
@@ -66,12 +60,6 @@
     <t>17:0 cyclo</t>
   </si>
   <si>
-    <t>18:1 trans 9</t>
-  </si>
-  <si>
-    <t>18:1 cis 9</t>
-  </si>
-  <si>
     <t>18:0</t>
   </si>
   <si>
@@ -105,7 +93,19 @@
     <t>rt</t>
   </si>
   <si>
-    <t>18:2 9, 12</t>
+    <t>16:1 cis</t>
+  </si>
+  <si>
+    <t>16:1 trans</t>
+  </si>
+  <si>
+    <t>18:2</t>
+  </si>
+  <si>
+    <t>18:1 trans</t>
+  </si>
+  <si>
+    <t>18:1 cis</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,13 +477,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -539,7 +539,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>2001.8</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>2024.17</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2066.8000000000002</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2220.83</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2275.38</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>2480.62</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>2505.2800000000002</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>2528.27</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>2575.3000000000002</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>2628.38</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>3058.92</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3299.48</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>3513.92</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>3729.61</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>3794.81</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>3936.72</v>
